--- a/Personal_Fit_Model/nyc_vehicle.xlsx
+++ b/Personal_Fit_Model/nyc_vehicle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8BE3F5-60D3-4194-A6DD-9884B0E3B538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6035C3C4-2BDC-45F9-8DBD-84F2429B273C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0131E40F-CE43-404A-B6AD-3D1D09469BD0}"/>
+    <workbookView xWindow="4380" yWindow="960" windowWidth="18168" windowHeight="11952" xr2:uid="{0131E40F-CE43-404A-B6AD-3D1D09469BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Occupied housing units</t>
   </si>
@@ -71,9 +71,6 @@
     <t>BK78 Bushwick South</t>
   </si>
   <si>
-    <t>BK99 park-cemetery-etc-Brooklyn</t>
-  </si>
-  <si>
     <t>BK82 East New York</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>BX62 Woodlawn-Wakefield</t>
   </si>
   <si>
-    <t>BX99 park-cemetery-etc-Bronx</t>
-  </si>
-  <si>
     <t>MN23 West Village</t>
   </si>
   <si>
@@ -395,9 +389,6 @@
     <t>QN72 Steinway</t>
   </si>
   <si>
-    <t>QN99 park-cemetery-etc-Queens</t>
-  </si>
-  <si>
     <t>QN31 Hunters Point-Sunnyside-West Maspeth</t>
   </si>
   <si>
@@ -620,10 +611,7 @@
     <t>3 or more vehicles available</t>
   </si>
   <si>
-    <t>cemetery</t>
-  </si>
-  <si>
-    <t>cemetery1</t>
+    <t>BK72 Williamsburg</t>
   </si>
 </sst>
 </file>
@@ -677,7 +665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -724,21 +712,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -756,18 +735,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1085,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334EFF62-090E-43C2-B235-5768DC98E239}">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,261 +1074,261 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="B2" s="5">
-        <v>19172</v>
+        <v>8299</v>
       </c>
       <c r="C2" s="6">
-        <v>13728</v>
+        <v>6108</v>
       </c>
       <c r="D2" s="6">
-        <v>4837</v>
+        <v>2075</v>
       </c>
       <c r="E2" s="6">
-        <v>565</v>
+        <v>107</v>
       </c>
       <c r="F2" s="6">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>15124</v>
+        <v>19172</v>
       </c>
       <c r="C3" s="6">
-        <v>10019</v>
+        <v>13728</v>
       </c>
       <c r="D3" s="6">
-        <v>4193</v>
+        <v>4837</v>
       </c>
       <c r="E3" s="6">
-        <v>778</v>
+        <v>565</v>
       </c>
       <c r="F3" s="6">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>14888</v>
+        <v>15124</v>
       </c>
       <c r="C4" s="6">
-        <v>10397</v>
+        <v>10019</v>
       </c>
       <c r="D4" s="6">
-        <v>3694</v>
+        <v>4193</v>
       </c>
       <c r="E4" s="6">
-        <v>703</v>
+        <v>778</v>
       </c>
       <c r="F4" s="6">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14888</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10397</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3694</v>
+      </c>
+      <c r="E5" s="6">
+        <v>703</v>
+      </c>
+      <c r="F5" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5">
         <v>11346</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>8194</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>2801</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E6" s="6">
         <v>290</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>15085</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>10868</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="6">
         <v>3647</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E7" s="6">
         <v>524</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>11560</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8003</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2941</v>
-      </c>
-      <c r="E7" s="6">
-        <v>470</v>
-      </c>
-      <c r="F7" s="6">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>14937</v>
+        <v>11560</v>
       </c>
       <c r="C8" s="6">
-        <v>8877</v>
+        <v>8003</v>
       </c>
       <c r="D8" s="6">
-        <v>4984</v>
+        <v>2941</v>
       </c>
       <c r="E8" s="6">
-        <v>793</v>
+        <v>470</v>
       </c>
       <c r="F8" s="6">
-        <v>283</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
-        <v>24360</v>
+        <v>14937</v>
       </c>
       <c r="C9" s="6">
-        <v>16239</v>
+        <v>8877</v>
       </c>
       <c r="D9" s="6">
-        <v>6721</v>
+        <v>4984</v>
       </c>
       <c r="E9" s="6">
-        <v>1147</v>
+        <v>793</v>
       </c>
       <c r="F9" s="6">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>24225</v>
+        <v>24360</v>
       </c>
       <c r="C10" s="6">
-        <v>16371</v>
+        <v>16239</v>
       </c>
       <c r="D10" s="6">
-        <v>6642</v>
+        <v>6721</v>
       </c>
       <c r="E10" s="6">
-        <v>981</v>
+        <v>1147</v>
       </c>
       <c r="F10" s="6">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>18885</v>
+        <v>24225</v>
       </c>
       <c r="C11" s="6">
-        <v>14255</v>
+        <v>16371</v>
       </c>
       <c r="D11" s="6">
-        <v>3703</v>
+        <v>6642</v>
       </c>
       <c r="E11" s="6">
-        <v>786</v>
+        <v>981</v>
       </c>
       <c r="F11" s="6">
-        <v>141</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>24164</v>
+        <v>18885</v>
       </c>
       <c r="C12" s="6">
-        <v>16492</v>
+        <v>14255</v>
       </c>
       <c r="D12" s="6">
-        <v>6094</v>
+        <v>3703</v>
       </c>
       <c r="E12" s="6">
-        <v>1319</v>
+        <v>786</v>
       </c>
       <c r="F12" s="6">
-        <v>259</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>170</v>
+        <v>24164</v>
       </c>
       <c r="C13" s="6">
-        <v>117</v>
+        <v>16492</v>
       </c>
       <c r="D13" s="6">
-        <v>26</v>
+        <v>6094</v>
       </c>
       <c r="E13" s="6">
-        <v>27</v>
+        <v>1319</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5">
         <v>30771</v>
@@ -1381,7 +1348,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>13634</v>
@@ -1401,7 +1368,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <v>6378</v>
@@ -1421,7 +1388,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>17628</v>
@@ -1441,7 +1408,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5">
         <v>31068</v>
@@ -1461,7 +1428,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5">
         <v>17023</v>
@@ -1481,7 +1448,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5">
         <v>20544</v>
@@ -1501,7 +1468,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5">
         <v>9510</v>
@@ -1521,7 +1488,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5">
         <v>40818</v>
@@ -1541,7 +1508,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>9394</v>
@@ -1561,7 +1528,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5">
         <v>26016</v>
@@ -1581,7 +1548,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5">
         <v>14662</v>
@@ -1601,7 +1568,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5">
         <v>14966</v>
@@ -1621,7 +1588,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5">
         <v>34990</v>
@@ -1641,7 +1608,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
         <v>10726</v>
@@ -1661,7 +1628,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5">
         <v>29717</v>
@@ -1681,7 +1648,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5">
         <v>21737</v>
@@ -1701,7 +1668,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5">
         <v>12037</v>
@@ -1721,7 +1688,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>6607</v>
@@ -1741,7 +1708,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5">
         <v>28325</v>
@@ -1761,7 +1728,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5">
         <v>13764</v>
@@ -1781,7 +1748,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5">
         <v>11215</v>
@@ -1801,7 +1768,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5">
         <v>8026</v>
@@ -1821,7 +1788,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5">
         <v>11068</v>
@@ -1841,7 +1808,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5">
         <v>37482</v>
@@ -1861,7 +1828,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5">
         <v>18430</v>
@@ -1881,7 +1848,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5">
         <v>25070</v>
@@ -1901,7 +1868,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5">
         <v>15435</v>
@@ -1921,7 +1888,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5">
         <v>15022</v>
@@ -1941,7 +1908,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5">
         <v>11686</v>
@@ -1961,7 +1928,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5">
         <v>20316</v>
@@ -1981,7 +1948,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5">
         <v>9841</v>
@@ -2001,7 +1968,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5">
         <v>18217</v>
@@ -2021,7 +1988,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5">
         <v>10222</v>
@@ -2041,7 +2008,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5">
         <v>20055</v>
@@ -2061,7 +2028,7 @@
     </row>
     <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="5">
         <v>16432</v>
@@ -2081,7 +2048,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5">
         <v>27669</v>
@@ -2101,7 +2068,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="5">
         <v>23279</v>
@@ -2121,7 +2088,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5">
         <v>8877</v>
@@ -2141,7 +2108,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5">
         <v>8318</v>
@@ -2161,7 +2128,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5">
         <v>12776</v>
@@ -2181,7 +2148,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5">
         <v>17497</v>
@@ -2201,7 +2168,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5">
         <v>9847</v>
@@ -2221,7 +2188,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5">
         <v>8319</v>
@@ -2241,7 +2208,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5">
         <v>14245</v>
@@ -2261,7 +2228,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5">
         <v>12475</v>
@@ -2281,7 +2248,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5">
         <v>6912</v>
@@ -2301,7 +2268,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5">
         <v>21343</v>
@@ -2321,7 +2288,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5">
         <v>12711</v>
@@ -2341,7 +2308,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5">
         <v>12795</v>
@@ -2361,7 +2328,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5">
         <v>17631</v>
@@ -2381,7 +2348,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5">
         <v>8338</v>
@@ -2401,7 +2368,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5">
         <v>16528</v>
@@ -2421,7 +2388,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5">
         <v>18253</v>
@@ -2441,7 +2408,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5">
         <v>10599</v>
@@ -2461,7 +2428,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5">
         <v>14192</v>
@@ -2481,7 +2448,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5">
         <v>10909</v>
@@ -2501,7 +2468,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5">
         <v>17347</v>
@@ -2521,7 +2488,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5">
         <v>12741</v>
@@ -2541,7 +2508,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5">
         <v>11448</v>
@@ -2561,7 +2528,7 @@
     </row>
     <row r="74" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5">
         <v>18657</v>
@@ -2581,7 +2548,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5">
         <v>12590</v>
@@ -2601,7 +2568,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5">
         <v>11247</v>
@@ -2621,7 +2588,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5">
         <v>8788</v>
@@ -2641,7 +2608,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5">
         <v>11247</v>
@@ -2661,7 +2628,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5">
         <v>18258</v>
@@ -2681,7 +2648,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="5">
         <v>16655</v>
@@ -2701,7 +2668,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5">
         <v>13479</v>
@@ -2721,7 +2688,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="5">
         <v>9707</v>
@@ -2741,7 +2708,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="5">
         <v>9657</v>
@@ -2761,7 +2728,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="5">
         <v>11364</v>
@@ -2781,7 +2748,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="5">
         <v>11599</v>
@@ -2801,7 +2768,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="5">
         <v>20322</v>
@@ -2821,7 +2788,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5">
         <v>15128</v>
@@ -2841,259 +2808,259 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5">
-        <v>482</v>
+        <v>37218</v>
       </c>
       <c r="C88" s="6">
-        <v>229</v>
+        <v>29541</v>
       </c>
       <c r="D88" s="6">
-        <v>223</v>
+        <v>6982</v>
       </c>
       <c r="E88" s="6">
-        <v>30</v>
+        <v>605</v>
       </c>
       <c r="F88" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5">
-        <v>37218</v>
+        <v>18761</v>
       </c>
       <c r="C89" s="6">
-        <v>29541</v>
+        <v>14521</v>
       </c>
       <c r="D89" s="6">
-        <v>6982</v>
+        <v>3864</v>
       </c>
       <c r="E89" s="6">
-        <v>605</v>
+        <v>270</v>
       </c>
       <c r="F89" s="6">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="5">
-        <v>18761</v>
+        <v>18931</v>
       </c>
       <c r="C90" s="6">
-        <v>14521</v>
+        <v>14338</v>
       </c>
       <c r="D90" s="6">
-        <v>3864</v>
+        <v>3894</v>
       </c>
       <c r="E90" s="6">
-        <v>270</v>
+        <v>510</v>
       </c>
       <c r="F90" s="6">
-        <v>106</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="5">
-        <v>18931</v>
+        <v>22306</v>
       </c>
       <c r="C91" s="6">
-        <v>14338</v>
+        <v>19332</v>
       </c>
       <c r="D91" s="6">
-        <v>3894</v>
+        <v>2800</v>
       </c>
       <c r="E91" s="6">
-        <v>510</v>
+        <v>174</v>
       </c>
       <c r="F91" s="6">
-        <v>189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="5">
-        <v>22306</v>
+        <v>18107</v>
       </c>
       <c r="C92" s="6">
-        <v>19332</v>
+        <v>15639</v>
       </c>
       <c r="D92" s="6">
-        <v>2800</v>
+        <v>2124</v>
       </c>
       <c r="E92" s="6">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="F92" s="6">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="5">
-        <v>18107</v>
+        <v>30216</v>
       </c>
       <c r="C93" s="6">
-        <v>15639</v>
+        <v>24423</v>
       </c>
       <c r="D93" s="6">
-        <v>2124</v>
+        <v>5195</v>
       </c>
       <c r="E93" s="6">
-        <v>322</v>
+        <v>503</v>
       </c>
       <c r="F93" s="6">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5">
-        <v>30216</v>
+        <v>39072</v>
       </c>
       <c r="C94" s="6">
-        <v>24423</v>
+        <v>31466</v>
       </c>
       <c r="D94" s="6">
-        <v>5195</v>
+        <v>7032</v>
       </c>
       <c r="E94" s="6">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F94" s="6">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5">
-        <v>39072</v>
+        <v>25261</v>
       </c>
       <c r="C95" s="6">
-        <v>31466</v>
+        <v>21946</v>
       </c>
       <c r="D95" s="6">
-        <v>7032</v>
+        <v>2971</v>
       </c>
       <c r="E95" s="6">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="F95" s="6">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="5">
-        <v>25261</v>
+        <v>15964</v>
       </c>
       <c r="C96" s="6">
-        <v>21946</v>
+        <v>13273</v>
       </c>
       <c r="D96" s="6">
-        <v>2971</v>
+        <v>2400</v>
       </c>
       <c r="E96" s="6">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="F96" s="6">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="5">
-        <v>15964</v>
+        <v>29094</v>
       </c>
       <c r="C97" s="6">
-        <v>13273</v>
+        <v>22508</v>
       </c>
       <c r="D97" s="6">
-        <v>2400</v>
+        <v>5866</v>
       </c>
       <c r="E97" s="6">
-        <v>264</v>
+        <v>526</v>
       </c>
       <c r="F97" s="6">
-        <v>27</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="5">
-        <v>29094</v>
+        <v>26173</v>
       </c>
       <c r="C98" s="6">
-        <v>22508</v>
+        <v>21751</v>
       </c>
       <c r="D98" s="6">
-        <v>5866</v>
+        <v>4143</v>
       </c>
       <c r="E98" s="6">
-        <v>526</v>
+        <v>197</v>
       </c>
       <c r="F98" s="6">
-        <v>194</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="5">
-        <v>26173</v>
+        <v>14877</v>
       </c>
       <c r="C99" s="6">
-        <v>21751</v>
+        <v>12347</v>
       </c>
       <c r="D99" s="6">
-        <v>4143</v>
+        <v>2267</v>
       </c>
       <c r="E99" s="6">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="F99" s="6">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="5">
-        <v>14877</v>
+        <v>10481</v>
       </c>
       <c r="C100" s="6">
-        <v>12347</v>
+        <v>7836</v>
       </c>
       <c r="D100" s="6">
-        <v>2267</v>
+        <v>2480</v>
       </c>
       <c r="E100" s="6">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="F100" s="6">
         <v>0</v>
@@ -3101,1866 +3068,1783 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5">
-        <v>10481</v>
+        <v>66941</v>
       </c>
       <c r="C101" s="6">
-        <v>7836</v>
+        <v>50962</v>
       </c>
       <c r="D101" s="6">
-        <v>2480</v>
+        <v>14278</v>
       </c>
       <c r="E101" s="6">
-        <v>165</v>
+        <v>1598</v>
       </c>
       <c r="F101" s="6">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5">
-        <v>66941</v>
+        <v>32169</v>
       </c>
       <c r="C102" s="6">
-        <v>50962</v>
+        <v>24009</v>
       </c>
       <c r="D102" s="6">
-        <v>14278</v>
+        <v>7337</v>
       </c>
       <c r="E102" s="6">
-        <v>1598</v>
+        <v>708</v>
       </c>
       <c r="F102" s="6">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="5">
-        <v>32169</v>
+        <v>43515</v>
       </c>
       <c r="C103" s="6">
-        <v>24009</v>
+        <v>32280</v>
       </c>
       <c r="D103" s="6">
-        <v>7337</v>
+        <v>10101</v>
       </c>
       <c r="E103" s="6">
-        <v>708</v>
+        <v>908</v>
       </c>
       <c r="F103" s="6">
-        <v>115</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5">
-        <v>43515</v>
+        <v>43613</v>
       </c>
       <c r="C104" s="6">
-        <v>32280</v>
+        <v>33080</v>
       </c>
       <c r="D104" s="6">
-        <v>10101</v>
+        <v>9901</v>
       </c>
       <c r="E104" s="6">
-        <v>908</v>
+        <v>487</v>
       </c>
       <c r="F104" s="6">
-        <v>226</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="5">
-        <v>43613</v>
+        <v>28751</v>
       </c>
       <c r="C105" s="6">
-        <v>33080</v>
+        <v>18787</v>
       </c>
       <c r="D105" s="6">
-        <v>9901</v>
+        <v>8600</v>
       </c>
       <c r="E105" s="6">
-        <v>487</v>
+        <v>1176</v>
       </c>
       <c r="F105" s="6">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="5">
-        <v>28751</v>
+        <v>18678</v>
       </c>
       <c r="C106" s="6">
-        <v>18787</v>
+        <v>14904</v>
       </c>
       <c r="D106" s="6">
-        <v>8600</v>
+        <v>3140</v>
       </c>
       <c r="E106" s="6">
-        <v>1176</v>
+        <v>528</v>
       </c>
       <c r="F106" s="6">
-        <v>188</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="5">
-        <v>18678</v>
+        <v>8130</v>
       </c>
       <c r="C107" s="6">
-        <v>14904</v>
+        <v>6706</v>
       </c>
       <c r="D107" s="6">
-        <v>3140</v>
+        <v>1222</v>
       </c>
       <c r="E107" s="6">
-        <v>528</v>
+        <v>202</v>
       </c>
       <c r="F107" s="6">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="5">
-        <v>8130</v>
+        <v>20166</v>
       </c>
       <c r="C108" s="6">
-        <v>6706</v>
+        <v>16290</v>
       </c>
       <c r="D108" s="6">
-        <v>1222</v>
+        <v>3582</v>
       </c>
       <c r="E108" s="6">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F108" s="6">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="5">
-        <v>20166</v>
+        <v>33203</v>
       </c>
       <c r="C109" s="6">
-        <v>16290</v>
+        <v>25745</v>
       </c>
       <c r="D109" s="6">
-        <v>3582</v>
+        <v>6291</v>
       </c>
       <c r="E109" s="6">
-        <v>189</v>
+        <v>1065</v>
       </c>
       <c r="F109" s="6">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="5">
-        <v>33203</v>
+        <v>18506</v>
       </c>
       <c r="C110" s="6">
-        <v>25745</v>
+        <v>14073</v>
       </c>
       <c r="D110" s="6">
-        <v>6291</v>
+        <v>3896</v>
       </c>
       <c r="E110" s="6">
-        <v>1065</v>
+        <v>441</v>
       </c>
       <c r="F110" s="6">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="5">
-        <v>18506</v>
+        <v>22874</v>
       </c>
       <c r="C111" s="6">
-        <v>14073</v>
+        <v>18429</v>
       </c>
       <c r="D111" s="6">
-        <v>3896</v>
+        <v>3779</v>
       </c>
       <c r="E111" s="6">
-        <v>441</v>
+        <v>592</v>
       </c>
       <c r="F111" s="6">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="5">
-        <v>22874</v>
+        <v>22183</v>
       </c>
       <c r="C112" s="6">
-        <v>18429</v>
+        <v>18077</v>
       </c>
       <c r="D112" s="6">
-        <v>3779</v>
+        <v>3722</v>
       </c>
       <c r="E112" s="6">
-        <v>592</v>
+        <v>270</v>
       </c>
       <c r="F112" s="6">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="5">
-        <v>22183</v>
+        <v>18168</v>
       </c>
       <c r="C113" s="6">
-        <v>18077</v>
+        <v>13522</v>
       </c>
       <c r="D113" s="6">
-        <v>3722</v>
+        <v>3962</v>
       </c>
       <c r="E113" s="6">
-        <v>270</v>
+        <v>605</v>
       </c>
       <c r="F113" s="6">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="5">
-        <v>18168</v>
+        <v>25490</v>
       </c>
       <c r="C114" s="6">
-        <v>13522</v>
+        <v>19104</v>
       </c>
       <c r="D114" s="6">
-        <v>3962</v>
+        <v>5505</v>
       </c>
       <c r="E114" s="6">
-        <v>605</v>
+        <v>719</v>
       </c>
       <c r="F114" s="6">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="5">
-        <v>25490</v>
+        <v>29283</v>
       </c>
       <c r="C115" s="6">
-        <v>19104</v>
+        <v>23078</v>
       </c>
       <c r="D115" s="6">
-        <v>5505</v>
+        <v>5210</v>
       </c>
       <c r="E115" s="6">
-        <v>719</v>
+        <v>865</v>
       </c>
       <c r="F115" s="6">
-        <v>162</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="5">
-        <v>29283</v>
+        <v>7283</v>
       </c>
       <c r="C116" s="6">
-        <v>23078</v>
+        <v>5076</v>
       </c>
       <c r="D116" s="6">
-        <v>5210</v>
+        <v>1618</v>
       </c>
       <c r="E116" s="6">
-        <v>865</v>
+        <v>538</v>
       </c>
       <c r="F116" s="6">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="5">
-        <v>7283</v>
+        <v>34018</v>
       </c>
       <c r="C117" s="6">
-        <v>5076</v>
+        <v>21798</v>
       </c>
       <c r="D117" s="6">
-        <v>1618</v>
+        <v>9459</v>
       </c>
       <c r="E117" s="6">
-        <v>538</v>
+        <v>2302</v>
       </c>
       <c r="F117" s="6">
-        <v>51</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="5">
-        <v>34018</v>
+        <v>10958</v>
       </c>
       <c r="C118" s="6">
-        <v>21798</v>
+        <v>6493</v>
       </c>
       <c r="D118" s="6">
-        <v>9459</v>
+        <v>3360</v>
       </c>
       <c r="E118" s="6">
-        <v>2302</v>
+        <v>932</v>
       </c>
       <c r="F118" s="6">
-        <v>459</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="5">
-        <v>10958</v>
+        <v>20793</v>
       </c>
       <c r="C119" s="6">
-        <v>6493</v>
+        <v>9149</v>
       </c>
       <c r="D119" s="6">
-        <v>3360</v>
+        <v>8512</v>
       </c>
       <c r="E119" s="6">
-        <v>932</v>
+        <v>2670</v>
       </c>
       <c r="F119" s="6">
-        <v>173</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="5">
-        <v>20793</v>
+        <v>26309</v>
       </c>
       <c r="C120" s="6">
-        <v>9149</v>
+        <v>16261</v>
       </c>
       <c r="D120" s="6">
-        <v>8512</v>
+        <v>8196</v>
       </c>
       <c r="E120" s="6">
-        <v>2670</v>
+        <v>1654</v>
       </c>
       <c r="F120" s="6">
-        <v>462</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>162</v>
+        <v>8352</v>
       </c>
       <c r="C121" s="6">
-        <v>80</v>
+        <v>3439</v>
       </c>
       <c r="D121" s="6">
-        <v>70</v>
+        <v>3588</v>
       </c>
       <c r="E121" s="6">
-        <v>12</v>
+        <v>1150</v>
       </c>
       <c r="F121" s="6">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="5">
-        <v>26309</v>
+        <v>16388</v>
       </c>
       <c r="C122" s="6">
-        <v>16261</v>
+        <v>8371</v>
       </c>
       <c r="D122" s="6">
-        <v>8196</v>
+        <v>6606</v>
       </c>
       <c r="E122" s="6">
-        <v>1654</v>
+        <v>1050</v>
       </c>
       <c r="F122" s="6">
-        <v>198</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="5">
-        <v>8352</v>
+        <v>11533</v>
       </c>
       <c r="C123" s="6">
-        <v>3439</v>
+        <v>7183</v>
       </c>
       <c r="D123" s="6">
-        <v>3588</v>
+        <v>3236</v>
       </c>
       <c r="E123" s="6">
-        <v>1150</v>
+        <v>881</v>
       </c>
       <c r="F123" s="6">
-        <v>175</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="5">
-        <v>16388</v>
+        <v>6264</v>
       </c>
       <c r="C124" s="6">
-        <v>8371</v>
+        <v>2473</v>
       </c>
       <c r="D124" s="6">
-        <v>6606</v>
+        <v>2517</v>
       </c>
       <c r="E124" s="6">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="F124" s="6">
-        <v>361</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="5">
-        <v>11533</v>
+        <v>36495</v>
       </c>
       <c r="C125" s="6">
-        <v>7183</v>
+        <v>19573</v>
       </c>
       <c r="D125" s="6">
-        <v>3236</v>
+        <v>13392</v>
       </c>
       <c r="E125" s="6">
-        <v>881</v>
+        <v>2915</v>
       </c>
       <c r="F125" s="6">
-        <v>233</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="5">
-        <v>6264</v>
+        <v>16253</v>
       </c>
       <c r="C126" s="6">
-        <v>2473</v>
+        <v>8625</v>
       </c>
       <c r="D126" s="6">
-        <v>2517</v>
+        <v>5953</v>
       </c>
       <c r="E126" s="6">
-        <v>1047</v>
+        <v>1133</v>
       </c>
       <c r="F126" s="6">
-        <v>227</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="5">
-        <v>36495</v>
+        <v>27528</v>
       </c>
       <c r="C127" s="6">
-        <v>19573</v>
+        <v>15788</v>
       </c>
       <c r="D127" s="6">
-        <v>13392</v>
+        <v>9451</v>
       </c>
       <c r="E127" s="6">
-        <v>2915</v>
+        <v>1799</v>
       </c>
       <c r="F127" s="6">
-        <v>615</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="5">
-        <v>16253</v>
+        <v>11561</v>
       </c>
       <c r="C128" s="6">
-        <v>8625</v>
+        <v>3554</v>
       </c>
       <c r="D128" s="6">
-        <v>5953</v>
+        <v>5118</v>
       </c>
       <c r="E128" s="6">
-        <v>1133</v>
+        <v>2109</v>
       </c>
       <c r="F128" s="6">
-        <v>542</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="5">
-        <v>27528</v>
+        <v>23963</v>
       </c>
       <c r="C129" s="6">
-        <v>15788</v>
+        <v>12833</v>
       </c>
       <c r="D129" s="6">
-        <v>9451</v>
+        <v>8695</v>
       </c>
       <c r="E129" s="6">
-        <v>1799</v>
+        <v>1965</v>
       </c>
       <c r="F129" s="6">
-        <v>490</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="5">
-        <v>11561</v>
+        <v>14899</v>
       </c>
       <c r="C130" s="6">
-        <v>3554</v>
+        <v>3470</v>
       </c>
       <c r="D130" s="6">
-        <v>5118</v>
+        <v>6512</v>
       </c>
       <c r="E130" s="6">
-        <v>2109</v>
+        <v>3788</v>
       </c>
       <c r="F130" s="6">
-        <v>780</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="5">
-        <v>23963</v>
+        <v>10629</v>
       </c>
       <c r="C131" s="6">
-        <v>12833</v>
+        <v>2840</v>
       </c>
       <c r="D131" s="6">
-        <v>8695</v>
+        <v>4856</v>
       </c>
       <c r="E131" s="6">
-        <v>1965</v>
+        <v>2088</v>
       </c>
       <c r="F131" s="6">
-        <v>470</v>
+        <v>845</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="5">
-        <v>14899</v>
+        <v>38771</v>
       </c>
       <c r="C132" s="6">
-        <v>3470</v>
+        <v>16195</v>
       </c>
       <c r="D132" s="6">
-        <v>6512</v>
+        <v>18033</v>
       </c>
       <c r="E132" s="6">
-        <v>3788</v>
+        <v>3966</v>
       </c>
       <c r="F132" s="6">
-        <v>1129</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="5">
-        <v>10629</v>
+        <v>12455</v>
       </c>
       <c r="C133" s="6">
-        <v>2840</v>
+        <v>5059</v>
       </c>
       <c r="D133" s="6">
-        <v>4856</v>
+        <v>5969</v>
       </c>
       <c r="E133" s="6">
-        <v>2088</v>
+        <v>1161</v>
       </c>
       <c r="F133" s="6">
-        <v>845</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="5">
-        <v>38771</v>
+        <v>25643</v>
       </c>
       <c r="C134" s="6">
-        <v>16195</v>
+        <v>14338</v>
       </c>
       <c r="D134" s="6">
-        <v>18033</v>
+        <v>9073</v>
       </c>
       <c r="E134" s="6">
-        <v>3966</v>
+        <v>1792</v>
       </c>
       <c r="F134" s="6">
-        <v>577</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="5">
-        <v>12455</v>
+        <v>7749</v>
       </c>
       <c r="C135" s="6">
-        <v>5059</v>
+        <v>1755</v>
       </c>
       <c r="D135" s="6">
-        <v>5969</v>
+        <v>3649</v>
       </c>
       <c r="E135" s="6">
-        <v>1161</v>
+        <v>1687</v>
       </c>
       <c r="F135" s="6">
-        <v>266</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="5">
-        <v>25643</v>
+        <v>10253</v>
       </c>
       <c r="C136" s="6">
-        <v>14338</v>
+        <v>1347</v>
       </c>
       <c r="D136" s="6">
-        <v>9073</v>
+        <v>5548</v>
       </c>
       <c r="E136" s="6">
-        <v>1792</v>
+        <v>2747</v>
       </c>
       <c r="F136" s="6">
-        <v>440</v>
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="5">
-        <v>7749</v>
+        <v>11544</v>
       </c>
       <c r="C137" s="6">
-        <v>1755</v>
+        <v>916</v>
       </c>
       <c r="D137" s="6">
-        <v>3649</v>
+        <v>4551</v>
       </c>
       <c r="E137" s="6">
-        <v>1687</v>
+        <v>4408</v>
       </c>
       <c r="F137" s="6">
-        <v>658</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="5">
-        <v>10253</v>
+        <v>17877</v>
       </c>
       <c r="C138" s="6">
-        <v>1347</v>
+        <v>5831</v>
       </c>
       <c r="D138" s="6">
-        <v>5548</v>
+        <v>7270</v>
       </c>
       <c r="E138" s="6">
-        <v>2747</v>
+        <v>3581</v>
       </c>
       <c r="F138" s="6">
-        <v>611</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="5">
-        <v>11544</v>
+        <v>8870</v>
       </c>
       <c r="C139" s="6">
-        <v>916</v>
+        <v>2283</v>
       </c>
       <c r="D139" s="6">
-        <v>4551</v>
+        <v>4046</v>
       </c>
       <c r="E139" s="6">
-        <v>4408</v>
+        <v>1830</v>
       </c>
       <c r="F139" s="6">
-        <v>1669</v>
+        <v>711</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="5">
-        <v>17877</v>
+        <v>6384</v>
       </c>
       <c r="C140" s="6">
-        <v>5831</v>
+        <v>1298</v>
       </c>
       <c r="D140" s="6">
-        <v>7270</v>
+        <v>3419</v>
       </c>
       <c r="E140" s="6">
-        <v>3581</v>
+        <v>1275</v>
       </c>
       <c r="F140" s="6">
-        <v>1195</v>
+        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="5">
-        <v>8870</v>
+        <v>9489</v>
       </c>
       <c r="C141" s="6">
-        <v>2283</v>
+        <v>2033</v>
       </c>
       <c r="D141" s="6">
-        <v>4046</v>
+        <v>4308</v>
       </c>
       <c r="E141" s="6">
-        <v>1830</v>
+        <v>2603</v>
       </c>
       <c r="F141" s="6">
-        <v>711</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="5">
-        <v>6384</v>
+        <v>13557</v>
       </c>
       <c r="C142" s="6">
-        <v>1298</v>
+        <v>4817</v>
       </c>
       <c r="D142" s="6">
-        <v>3419</v>
+        <v>5954</v>
       </c>
       <c r="E142" s="6">
-        <v>1275</v>
+        <v>2353</v>
       </c>
       <c r="F142" s="6">
-        <v>392</v>
+        <v>433</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="5">
-        <v>9489</v>
+        <v>13265</v>
       </c>
       <c r="C143" s="6">
-        <v>2033</v>
+        <v>3464</v>
       </c>
       <c r="D143" s="6">
-        <v>4308</v>
+        <v>6807</v>
       </c>
       <c r="E143" s="6">
-        <v>2603</v>
+        <v>2466</v>
       </c>
       <c r="F143" s="6">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="5">
-        <v>13557</v>
+        <v>11797</v>
       </c>
       <c r="C144" s="6">
-        <v>4817</v>
+        <v>3518</v>
       </c>
       <c r="D144" s="6">
-        <v>5954</v>
+        <v>4906</v>
       </c>
       <c r="E144" s="6">
-        <v>2353</v>
+        <v>2862</v>
       </c>
       <c r="F144" s="6">
-        <v>433</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="5">
-        <v>13265</v>
+        <v>6582</v>
       </c>
       <c r="C145" s="6">
-        <v>3464</v>
+        <v>908</v>
       </c>
       <c r="D145" s="6">
-        <v>6807</v>
+        <v>3545</v>
       </c>
       <c r="E145" s="6">
-        <v>2466</v>
+        <v>1784</v>
       </c>
       <c r="F145" s="6">
-        <v>528</v>
+        <v>345</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="5">
-        <v>11797</v>
+        <v>17140</v>
       </c>
       <c r="C146" s="6">
-        <v>3518</v>
+        <v>5762</v>
       </c>
       <c r="D146" s="6">
-        <v>4906</v>
+        <v>7409</v>
       </c>
       <c r="E146" s="6">
-        <v>2862</v>
+        <v>2894</v>
       </c>
       <c r="F146" s="6">
-        <v>511</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="5">
-        <v>6582</v>
+        <v>17535</v>
       </c>
       <c r="C147" s="6">
-        <v>908</v>
+        <v>5857</v>
       </c>
       <c r="D147" s="6">
-        <v>3545</v>
+        <v>6899</v>
       </c>
       <c r="E147" s="6">
-        <v>1784</v>
+        <v>3547</v>
       </c>
       <c r="F147" s="6">
-        <v>345</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="5">
-        <v>17140</v>
+        <v>9997</v>
       </c>
       <c r="C148" s="6">
-        <v>5762</v>
+        <v>4273</v>
       </c>
       <c r="D148" s="6">
-        <v>7409</v>
+        <v>4351</v>
       </c>
       <c r="E148" s="6">
-        <v>2894</v>
+        <v>1161</v>
       </c>
       <c r="F148" s="6">
-        <v>1075</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="5">
-        <v>17535</v>
+        <v>22031</v>
       </c>
       <c r="C149" s="6">
-        <v>5857</v>
+        <v>5728</v>
       </c>
       <c r="D149" s="6">
-        <v>6899</v>
+        <v>9266</v>
       </c>
       <c r="E149" s="6">
-        <v>3547</v>
+        <v>5237</v>
       </c>
       <c r="F149" s="6">
-        <v>1232</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="5">
-        <v>9997</v>
+        <v>6837</v>
       </c>
       <c r="C150" s="6">
-        <v>4273</v>
+        <v>1514</v>
       </c>
       <c r="D150" s="6">
-        <v>4351</v>
+        <v>2971</v>
       </c>
       <c r="E150" s="6">
-        <v>1161</v>
+        <v>1917</v>
       </c>
       <c r="F150" s="6">
-        <v>212</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="5">
-        <v>22031</v>
+        <v>11261</v>
       </c>
       <c r="C151" s="6">
-        <v>5728</v>
+        <v>1862</v>
       </c>
       <c r="D151" s="6">
-        <v>9266</v>
+        <v>5070</v>
       </c>
       <c r="E151" s="6">
-        <v>5237</v>
+        <v>3310</v>
       </c>
       <c r="F151" s="6">
-        <v>1800</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="5">
-        <v>6837</v>
+        <v>11235</v>
       </c>
       <c r="C152" s="6">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="D152" s="6">
-        <v>2971</v>
+        <v>5382</v>
       </c>
       <c r="E152" s="6">
-        <v>1917</v>
+        <v>3502</v>
       </c>
       <c r="F152" s="6">
-        <v>435</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="5">
-        <v>11261</v>
+        <v>9677</v>
       </c>
       <c r="C153" s="6">
-        <v>1862</v>
+        <v>817</v>
       </c>
       <c r="D153" s="6">
-        <v>5070</v>
+        <v>4413</v>
       </c>
       <c r="E153" s="6">
-        <v>3310</v>
+        <v>3256</v>
       </c>
       <c r="F153" s="6">
-        <v>1019</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="5">
-        <v>11235</v>
+        <v>16043</v>
       </c>
       <c r="C154" s="6">
-        <v>1504</v>
+        <v>2080</v>
       </c>
       <c r="D154" s="6">
-        <v>5382</v>
+        <v>6892</v>
       </c>
       <c r="E154" s="6">
-        <v>3502</v>
+        <v>5267</v>
       </c>
       <c r="F154" s="6">
-        <v>847</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="5">
-        <v>9677</v>
+        <v>7182</v>
       </c>
       <c r="C155" s="6">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="D155" s="6">
-        <v>4413</v>
+        <v>3445</v>
       </c>
       <c r="E155" s="6">
-        <v>3256</v>
+        <v>2177</v>
       </c>
       <c r="F155" s="6">
-        <v>1191</v>
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="5">
-        <v>16043</v>
+        <v>11627</v>
       </c>
       <c r="C156" s="6">
-        <v>2080</v>
+        <v>5024</v>
       </c>
       <c r="D156" s="6">
-        <v>6892</v>
+        <v>4070</v>
       </c>
       <c r="E156" s="6">
-        <v>5267</v>
+        <v>1845</v>
       </c>
       <c r="F156" s="6">
-        <v>1804</v>
+        <v>688</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="5">
-        <v>7182</v>
+        <v>9939</v>
       </c>
       <c r="C157" s="6">
-        <v>868</v>
+        <v>3028</v>
       </c>
       <c r="D157" s="6">
-        <v>3445</v>
+        <v>4658</v>
       </c>
       <c r="E157" s="6">
-        <v>2177</v>
+        <v>1850</v>
       </c>
       <c r="F157" s="6">
-        <v>692</v>
+        <v>403</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="5">
-        <v>11627</v>
+        <v>6273</v>
       </c>
       <c r="C158" s="6">
-        <v>5024</v>
+        <v>1800</v>
       </c>
       <c r="D158" s="6">
-        <v>4070</v>
+        <v>2304</v>
       </c>
       <c r="E158" s="6">
-        <v>1845</v>
+        <v>1593</v>
       </c>
       <c r="F158" s="6">
-        <v>688</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="5">
-        <v>9939</v>
+        <v>15308</v>
       </c>
       <c r="C159" s="6">
-        <v>3028</v>
+        <v>3262</v>
       </c>
       <c r="D159" s="6">
-        <v>4658</v>
+        <v>6177</v>
       </c>
       <c r="E159" s="6">
-        <v>1850</v>
+        <v>4311</v>
       </c>
       <c r="F159" s="6">
-        <v>403</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="5">
-        <v>6273</v>
+        <v>15700</v>
       </c>
       <c r="C160" s="6">
-        <v>1800</v>
+        <v>8682</v>
       </c>
       <c r="D160" s="6">
-        <v>2304</v>
+        <v>5009</v>
       </c>
       <c r="E160" s="6">
-        <v>1593</v>
+        <v>1638</v>
       </c>
       <c r="F160" s="6">
-        <v>576</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="5">
-        <v>15308</v>
+        <v>10364</v>
       </c>
       <c r="C161" s="6">
-        <v>3262</v>
+        <v>3104</v>
       </c>
       <c r="D161" s="6">
-        <v>6177</v>
+        <v>4019</v>
       </c>
       <c r="E161" s="6">
-        <v>4311</v>
+        <v>2587</v>
       </c>
       <c r="F161" s="6">
-        <v>1558</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="5">
-        <v>15700</v>
+        <v>5553</v>
       </c>
       <c r="C162" s="6">
-        <v>8682</v>
+        <v>775</v>
       </c>
       <c r="D162" s="6">
-        <v>5009</v>
+        <v>2434</v>
       </c>
       <c r="E162" s="6">
-        <v>1638</v>
+        <v>1770</v>
       </c>
       <c r="F162" s="6">
-        <v>371</v>
+        <v>574</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="5">
-        <v>10364</v>
+        <v>7896</v>
       </c>
       <c r="C163" s="6">
-        <v>3104</v>
+        <v>899</v>
       </c>
       <c r="D163" s="6">
-        <v>4019</v>
+        <v>3283</v>
       </c>
       <c r="E163" s="6">
-        <v>2587</v>
+        <v>2658</v>
       </c>
       <c r="F163" s="6">
-        <v>654</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="5">
-        <v>5553</v>
+        <v>6337</v>
       </c>
       <c r="C164" s="6">
-        <v>775</v>
+        <v>713</v>
       </c>
       <c r="D164" s="6">
-        <v>2434</v>
+        <v>2647</v>
       </c>
       <c r="E164" s="6">
-        <v>1770</v>
+        <v>2320</v>
       </c>
       <c r="F164" s="6">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="5">
-        <v>7896</v>
+        <v>16048</v>
       </c>
       <c r="C165" s="6">
-        <v>899</v>
+        <v>2754</v>
       </c>
       <c r="D165" s="6">
-        <v>3283</v>
+        <v>6281</v>
       </c>
       <c r="E165" s="6">
-        <v>2658</v>
+        <v>4774</v>
       </c>
       <c r="F165" s="6">
-        <v>1056</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="5">
-        <v>6337</v>
+        <v>8110</v>
       </c>
       <c r="C166" s="6">
-        <v>713</v>
+        <v>801</v>
       </c>
       <c r="D166" s="6">
-        <v>2647</v>
+        <v>3184</v>
       </c>
       <c r="E166" s="6">
-        <v>2320</v>
+        <v>3135</v>
       </c>
       <c r="F166" s="6">
-        <v>657</v>
+        <v>990</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="5">
-        <v>16048</v>
+        <v>9167</v>
       </c>
       <c r="C167" s="6">
-        <v>2754</v>
+        <v>1099</v>
       </c>
       <c r="D167" s="6">
-        <v>6281</v>
+        <v>4364</v>
       </c>
       <c r="E167" s="6">
-        <v>4774</v>
+        <v>2839</v>
       </c>
       <c r="F167" s="6">
-        <v>2239</v>
+        <v>865</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="5">
+        <v>7891</v>
+      </c>
+      <c r="C168" s="6">
+        <v>1097</v>
+      </c>
+      <c r="D168" s="6">
+        <v>3157</v>
+      </c>
+      <c r="E168" s="6">
+        <v>2480</v>
+      </c>
+      <c r="F168" s="6">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="5">
-        <v>8110</v>
-      </c>
-      <c r="C168" s="6">
-        <v>801</v>
-      </c>
-      <c r="D168" s="6">
-        <v>3184</v>
-      </c>
-      <c r="E168" s="6">
-        <v>3135</v>
-      </c>
-      <c r="F168" s="6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="B169" s="5">
-        <v>9167</v>
+        <v>11319</v>
       </c>
       <c r="C169" s="6">
-        <v>1099</v>
+        <v>2245</v>
       </c>
       <c r="D169" s="6">
-        <v>4364</v>
+        <v>4843</v>
       </c>
       <c r="E169" s="6">
-        <v>2839</v>
+        <v>3248</v>
       </c>
       <c r="F169" s="6">
-        <v>865</v>
+        <v>983</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="5">
+        <v>12157</v>
+      </c>
+      <c r="C170" s="6">
+        <v>5935</v>
+      </c>
+      <c r="D170" s="6">
+        <v>4407</v>
+      </c>
+      <c r="E170" s="6">
+        <v>1528</v>
+      </c>
+      <c r="F170" s="6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="5">
-        <v>7891</v>
-      </c>
-      <c r="C170" s="6">
-        <v>1097</v>
-      </c>
-      <c r="D170" s="6">
-        <v>3157</v>
-      </c>
-      <c r="E170" s="6">
-        <v>2480</v>
-      </c>
-      <c r="F170" s="6">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="B171" s="5">
-        <v>11319</v>
+        <v>16060</v>
       </c>
       <c r="C171" s="6">
-        <v>2245</v>
+        <v>7817</v>
       </c>
       <c r="D171" s="6">
-        <v>4843</v>
+        <v>4980</v>
       </c>
       <c r="E171" s="6">
-        <v>3248</v>
+        <v>2611</v>
       </c>
       <c r="F171" s="6">
-        <v>983</v>
+        <v>652</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="5">
-        <v>12157</v>
+        <v>9083</v>
       </c>
       <c r="C172" s="6">
-        <v>5935</v>
+        <v>1028</v>
       </c>
       <c r="D172" s="6">
-        <v>4407</v>
+        <v>3401</v>
       </c>
       <c r="E172" s="6">
-        <v>1528</v>
+        <v>3291</v>
       </c>
       <c r="F172" s="6">
-        <v>287</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5">
+        <v>7941</v>
+      </c>
+      <c r="C173" s="6">
+        <v>2203</v>
+      </c>
+      <c r="D173" s="6">
+        <v>3705</v>
+      </c>
+      <c r="E173" s="6">
+        <v>1733</v>
+      </c>
+      <c r="F173" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="5">
-        <v>16060</v>
-      </c>
-      <c r="C173" s="6">
-        <v>7817</v>
-      </c>
-      <c r="D173" s="6">
-        <v>4980</v>
-      </c>
-      <c r="E173" s="6">
-        <v>2611</v>
-      </c>
-      <c r="F173" s="6">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="B174" s="5">
-        <v>9083</v>
+        <v>10025</v>
       </c>
       <c r="C174" s="6">
-        <v>1028</v>
+        <v>2533</v>
       </c>
       <c r="D174" s="6">
-        <v>3401</v>
+        <v>4025</v>
       </c>
       <c r="E174" s="6">
-        <v>3291</v>
+        <v>2494</v>
       </c>
       <c r="F174" s="6">
-        <v>1363</v>
+        <v>973</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5">
+        <v>11686</v>
+      </c>
+      <c r="C175" s="6">
+        <v>4959</v>
+      </c>
+      <c r="D175" s="6">
+        <v>4332</v>
+      </c>
+      <c r="E175" s="6">
+        <v>1911</v>
+      </c>
+      <c r="F175" s="6">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="5">
-        <v>7941</v>
-      </c>
-      <c r="C175" s="6">
-        <v>2203</v>
-      </c>
-      <c r="D175" s="6">
-        <v>3705</v>
-      </c>
-      <c r="E175" s="6">
-        <v>1733</v>
-      </c>
-      <c r="F175" s="6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="B176" s="5">
-        <v>10025</v>
+        <v>6369</v>
       </c>
       <c r="C176" s="6">
-        <v>2533</v>
+        <v>1551</v>
       </c>
       <c r="D176" s="6">
-        <v>4025</v>
+        <v>2440</v>
       </c>
       <c r="E176" s="6">
-        <v>2494</v>
+        <v>1721</v>
       </c>
       <c r="F176" s="6">
-        <v>973</v>
+        <v>657</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="5">
-        <v>11686</v>
+        <v>6303</v>
       </c>
       <c r="C177" s="6">
-        <v>4959</v>
+        <v>1113</v>
       </c>
       <c r="D177" s="6">
-        <v>4332</v>
+        <v>2353</v>
       </c>
       <c r="E177" s="6">
-        <v>1911</v>
+        <v>2169</v>
       </c>
       <c r="F177" s="6">
-        <v>484</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="5">
-        <v>6369</v>
+        <v>9115</v>
       </c>
       <c r="C178" s="6">
-        <v>1551</v>
+        <v>2952</v>
       </c>
       <c r="D178" s="6">
-        <v>2440</v>
+        <v>3731</v>
       </c>
       <c r="E178" s="6">
-        <v>1721</v>
+        <v>1918</v>
       </c>
       <c r="F178" s="6">
-        <v>657</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="5">
-        <v>6303</v>
+        <v>13345</v>
       </c>
       <c r="C179" s="6">
-        <v>1113</v>
+        <v>1399</v>
       </c>
       <c r="D179" s="6">
-        <v>2353</v>
+        <v>4998</v>
       </c>
       <c r="E179" s="6">
-        <v>2169</v>
+        <v>5291</v>
       </c>
       <c r="F179" s="6">
-        <v>668</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5">
+        <v>5438</v>
+      </c>
+      <c r="C180" s="6">
+        <v>1129</v>
+      </c>
+      <c r="D180" s="6">
+        <v>2200</v>
+      </c>
+      <c r="E180" s="6">
+        <v>1654</v>
+      </c>
+      <c r="F180" s="6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="5">
-        <v>9115</v>
-      </c>
-      <c r="C180" s="6">
-        <v>2952</v>
-      </c>
-      <c r="D180" s="6">
-        <v>3731</v>
-      </c>
-      <c r="E180" s="6">
-        <v>1918</v>
-      </c>
-      <c r="F180" s="6">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="B181" s="5">
-        <v>13345</v>
+        <v>11096</v>
       </c>
       <c r="C181" s="6">
-        <v>1399</v>
+        <v>1221</v>
       </c>
       <c r="D181" s="6">
-        <v>4998</v>
+        <v>3764</v>
       </c>
       <c r="E181" s="6">
-        <v>5291</v>
+        <v>4388</v>
       </c>
       <c r="F181" s="6">
-        <v>1657</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5">
+        <v>8752</v>
+      </c>
+      <c r="C182" s="6">
+        <v>1548</v>
+      </c>
+      <c r="D182" s="6">
+        <v>3787</v>
+      </c>
+      <c r="E182" s="6">
+        <v>2467</v>
+      </c>
+      <c r="F182" s="6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="5">
-        <v>5438</v>
-      </c>
-      <c r="C182" s="6">
-        <v>1129</v>
-      </c>
-      <c r="D182" s="6">
-        <v>2200</v>
-      </c>
-      <c r="E182" s="6">
-        <v>1654</v>
-      </c>
-      <c r="F182" s="6">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="B183" s="5">
-        <v>11096</v>
+        <v>7881</v>
       </c>
       <c r="C183" s="6">
-        <v>1221</v>
+        <v>1060</v>
       </c>
       <c r="D183" s="6">
-        <v>3764</v>
+        <v>2984</v>
       </c>
       <c r="E183" s="6">
-        <v>4388</v>
+        <v>2676</v>
       </c>
       <c r="F183" s="6">
-        <v>1723</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="5">
-        <v>8752</v>
+        <v>9786</v>
       </c>
       <c r="C184" s="6">
-        <v>1548</v>
+        <v>528</v>
       </c>
       <c r="D184" s="6">
-        <v>3787</v>
+        <v>2859</v>
       </c>
       <c r="E184" s="6">
-        <v>2467</v>
+        <v>4313</v>
       </c>
       <c r="F184" s="6">
-        <v>950</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="5">
-        <v>7881</v>
+        <v>7622</v>
       </c>
       <c r="C185" s="6">
-        <v>1060</v>
+        <v>446</v>
       </c>
       <c r="D185" s="6">
-        <v>2984</v>
+        <v>2190</v>
       </c>
       <c r="E185" s="6">
-        <v>2676</v>
+        <v>3446</v>
       </c>
       <c r="F185" s="6">
-        <v>1161</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="5">
-        <v>9786</v>
+        <v>8194</v>
       </c>
       <c r="C186" s="6">
-        <v>528</v>
+        <v>1116</v>
       </c>
       <c r="D186" s="6">
-        <v>2859</v>
+        <v>3073</v>
       </c>
       <c r="E186" s="6">
-        <v>4313</v>
+        <v>2834</v>
       </c>
       <c r="F186" s="6">
-        <v>2086</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="5">
-        <v>7622</v>
+        <v>6945</v>
       </c>
       <c r="C187" s="6">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="D187" s="6">
-        <v>2190</v>
+        <v>2127</v>
       </c>
       <c r="E187" s="6">
-        <v>3446</v>
+        <v>3177</v>
       </c>
       <c r="F187" s="6">
-        <v>1540</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="5">
-        <v>8194</v>
+        <v>8805</v>
       </c>
       <c r="C188" s="6">
-        <v>1116</v>
+        <v>349</v>
       </c>
       <c r="D188" s="6">
-        <v>3073</v>
+        <v>3167</v>
       </c>
       <c r="E188" s="6">
-        <v>2834</v>
+        <v>3840</v>
       </c>
       <c r="F188" s="6">
-        <v>1171</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="5">
-        <v>6945</v>
+        <v>15289</v>
       </c>
       <c r="C189" s="6">
-        <v>460</v>
+        <v>1160</v>
       </c>
       <c r="D189" s="6">
-        <v>2127</v>
+        <v>5438</v>
       </c>
       <c r="E189" s="6">
-        <v>3177</v>
+        <v>6037</v>
       </c>
       <c r="F189" s="6">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190" s="5">
-        <v>8805</v>
-      </c>
-      <c r="C190" s="6">
-        <v>349</v>
-      </c>
-      <c r="D190" s="6">
-        <v>3167</v>
-      </c>
-      <c r="E190" s="6">
-        <v>3840</v>
-      </c>
-      <c r="F190" s="6">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191" s="5">
-        <v>15289</v>
-      </c>
-      <c r="C191" s="6">
-        <v>1160</v>
-      </c>
-      <c r="D191" s="6">
-        <v>5438</v>
-      </c>
-      <c r="E191" s="6">
-        <v>6037</v>
-      </c>
-      <c r="F191" s="6">
         <v>2654</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" s="8">
-        <v>1</v>
-      </c>
-      <c r="C192" s="9">
-        <v>1</v>
-      </c>
-      <c r="D192" s="9">
-        <v>1</v>
-      </c>
-      <c r="E192" s="9">
-        <v>1</v>
-      </c>
-      <c r="F192" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" s="8">
-        <v>1</v>
-      </c>
-      <c r="C193" s="9">
-        <v>1</v>
-      </c>
-      <c r="D193" s="9">
-        <v>1</v>
-      </c>
-      <c r="E193" s="9">
-        <v>1</v>
-      </c>
-      <c r="F193" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D194" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
